--- a/Economics/Forecast/Non-Stationarity/Price/unp_rate.xlsx
+++ b/Economics/Forecast/Non-Stationarity/Price/unp_rate.xlsx
@@ -417,16 +417,16 @@
         <v>99</v>
       </c>
       <c r="C2">
-        <v>2.962293345463498</v>
+        <v>1.536338601102794</v>
       </c>
       <c r="D2">
-        <v>2.061726272528365</v>
+        <v>-6.126674130999158</v>
       </c>
       <c r="E2">
-        <v>3.862860418398631</v>
+        <v>9.199351333204744</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>3.448275862068969</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -437,16 +437,16 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>2.987812888866877</v>
+        <v>0.7330184739499481</v>
       </c>
       <c r="D3">
-        <v>2.091728800209476</v>
+        <v>-6.899077774338366</v>
       </c>
       <c r="E3">
-        <v>3.883896977524278</v>
+        <v>8.365114722238262</v>
       </c>
       <c r="F3">
-        <v>3.1</v>
+        <v>3.333333333333336</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -457,16 +457,16 @@
         <v>101</v>
       </c>
       <c r="C4">
-        <v>3.064086491507226</v>
+        <v>-1.470164975838076</v>
       </c>
       <c r="D4">
-        <v>2.172179296555356</v>
+        <v>-9.079682525725095</v>
       </c>
       <c r="E4">
-        <v>3.955993686459096</v>
+        <v>6.139352574048944</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>-3.225806451612906</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -477,16 +477,16 @@
         <v>102</v>
       </c>
       <c r="C5">
-        <v>3.019432131535085</v>
+        <v>-1.030025884242618</v>
       </c>
       <c r="D5">
-        <v>2.131821561620061</v>
+        <v>-8.609522383985398</v>
       </c>
       <c r="E5">
-        <v>3.907042701450108</v>
+        <v>6.549470615500162</v>
       </c>
       <c r="F5">
-        <v>2.9</v>
+        <v>-3.333333333333336</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -497,16 +497,16 @@
         <v>103</v>
       </c>
       <c r="C6">
-        <v>2.936775812759615</v>
+        <v>1.041642735746339</v>
       </c>
       <c r="D6">
-        <v>2.053185612724738</v>
+        <v>-6.512617926403744</v>
       </c>
       <c r="E6">
-        <v>3.820366012794492</v>
+        <v>8.595903397896421</v>
       </c>
       <c r="F6">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -517,16 +517,16 @@
         <v>104</v>
       </c>
       <c r="C7">
-        <v>2.91059833265747</v>
+        <v>1.9825784530954</v>
       </c>
       <c r="D7">
-        <v>2.0312377248885</v>
+        <v>-5.537626767872451</v>
       </c>
       <c r="E7">
-        <v>3.789958940426439</v>
+        <v>9.502783674063251</v>
       </c>
       <c r="F7">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -537,16 +537,16 @@
         <v>105</v>
       </c>
       <c r="C8">
-        <v>2.902538431593129</v>
+        <v>0.8617233961574478</v>
       </c>
       <c r="D8">
-        <v>2.027371927520915</v>
+        <v>-6.632075255852214</v>
       </c>
       <c r="E8">
-        <v>3.777704935665342</v>
+        <v>8.35552204816711</v>
       </c>
       <c r="F8">
-        <v>2.8</v>
+        <v>-3.448275862068969</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -557,16 +557,16 @@
         <v>106</v>
       </c>
       <c r="C9">
-        <v>2.830936950773183</v>
+        <v>-0.04160873633604312</v>
       </c>
       <c r="D9">
-        <v>1.959691309344619</v>
+        <v>-7.541001965321245</v>
       </c>
       <c r="E9">
-        <v>3.702182592201748</v>
+        <v>7.457784492649159</v>
       </c>
       <c r="F9">
-        <v>2.9</v>
+        <v>3.571428571428575</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -577,16 +577,16 @@
         <v>107</v>
       </c>
       <c r="C10">
-        <v>2.877760370307162</v>
+        <v>-1.603161205055955</v>
       </c>
       <c r="D10">
-        <v>2.010495681181385</v>
+        <v>-9.097660098505319</v>
       </c>
       <c r="E10">
-        <v>3.74502505943294</v>
+        <v>5.891337688393408</v>
       </c>
       <c r="F10">
-        <v>2.8</v>
+        <v>-3.448275862068969</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -597,16 +597,16 @@
         <v>108</v>
       </c>
       <c r="C11">
-        <v>2.823754085244929</v>
+        <v>0.1336656053886218</v>
       </c>
       <c r="D11">
-        <v>1.960390148148086</v>
+        <v>-7.333769856912879</v>
       </c>
       <c r="E11">
-        <v>3.687118022341772</v>
+        <v>7.601101067690122</v>
       </c>
       <c r="F11">
-        <v>2.9</v>
+        <v>3.571428571428575</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -617,16 +617,16 @@
         <v>109</v>
       </c>
       <c r="C12">
-        <v>2.875110642307075</v>
+        <v>0.001846520152040787</v>
       </c>
       <c r="D12">
-        <v>2.015595400907173</v>
+        <v>-7.459035789882233</v>
       </c>
       <c r="E12">
-        <v>3.734625883706977</v>
+        <v>7.462728830186315</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -637,16 +637,16 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>2.891400289788498</v>
+        <v>0.2277586867090768</v>
       </c>
       <c r="D13">
-        <v>2.03578674894035</v>
+        <v>-7.199125821140357</v>
       </c>
       <c r="E13">
-        <v>3.747013830636645</v>
+        <v>7.654643194558511</v>
       </c>
       <c r="F13">
-        <v>2.8</v>
+        <v>-3.448275862068969</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -657,16 +657,16 @@
         <v>111</v>
       </c>
       <c r="C14">
-        <v>2.828435589381862</v>
+        <v>0.9882836599484477</v>
       </c>
       <c r="D14">
-        <v>1.976516645272322</v>
+        <v>-6.436201943629157</v>
       </c>
       <c r="E14">
-        <v>3.680354533491402</v>
+        <v>8.412769263526052</v>
       </c>
       <c r="F14">
-        <v>2.7</v>
+        <v>-3.571428571428559</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -677,16 +677,16 @@
         <v>112</v>
       </c>
       <c r="C15">
-        <v>2.739407401064221</v>
+        <v>1.474396839058982</v>
       </c>
       <c r="D15">
-        <v>1.890970343892763</v>
+        <v>-5.964263621922377</v>
       </c>
       <c r="E15">
-        <v>3.587844458235678</v>
+        <v>8.913057300040339</v>
       </c>
       <c r="F15">
-        <v>2.8</v>
+        <v>3.70370370370369</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -697,16 +697,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>2.780255584266913</v>
+        <v>-0.6140438695729435</v>
       </c>
       <c r="D16">
-        <v>1.935506065387583</v>
+        <v>-8.030486886513138</v>
       </c>
       <c r="E16">
-        <v>3.625005103146244</v>
+        <v>6.802399147367252</v>
       </c>
       <c r="F16">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -717,16 +717,16 @@
         <v>114</v>
       </c>
       <c r="C17">
-        <v>2.793014918561739</v>
+        <v>-1.336667277225383</v>
       </c>
       <c r="D17">
-        <v>1.951970329655002</v>
+        <v>-8.721327343341137</v>
       </c>
       <c r="E17">
-        <v>3.634059507468477</v>
+        <v>6.04799278889037</v>
       </c>
       <c r="F17">
-        <v>2.7</v>
+        <v>-3.571428571428559</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -737,16 +737,16 @@
         <v>115</v>
       </c>
       <c r="C18">
-        <v>2.729028814292998</v>
+        <v>0.3408154469363052</v>
       </c>
       <c r="D18">
-        <v>1.891476645221891</v>
+        <v>-7.022359140060688</v>
       </c>
       <c r="E18">
-        <v>3.566580983364106</v>
+        <v>7.703990033933298</v>
       </c>
       <c r="F18">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -757,16 +757,16 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>2.708525022781794</v>
+        <v>1.28327185435828</v>
       </c>
       <c r="D19">
-        <v>1.874573669252165</v>
+        <v>-6.048333146842779</v>
       </c>
       <c r="E19">
-        <v>3.542476376311424</v>
+        <v>8.614876855559338</v>
       </c>
       <c r="F19">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -777,16 +777,16 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>2.70203814867455</v>
+        <v>0.8888011901271207</v>
       </c>
       <c r="D20">
-        <v>1.871655947434311</v>
+        <v>-6.415130826867227</v>
       </c>
       <c r="E20">
-        <v>3.532420349914788</v>
+        <v>8.192733207121469</v>
       </c>
       <c r="F20">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -797,16 +797,16 @@
         <v>118</v>
       </c>
       <c r="C21">
-        <v>2.699985774836816</v>
+        <v>-0.3431276795167677</v>
       </c>
       <c r="D21">
-        <v>1.873128531913938</v>
+        <v>-7.617856529878381</v>
       </c>
       <c r="E21">
-        <v>3.526843017759695</v>
+        <v>6.931601170844845</v>
       </c>
       <c r="F21">
-        <v>2.6</v>
+        <v>-3.703703703703707</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -817,16 +817,16 @@
         <v>119</v>
       </c>
       <c r="C22">
-        <v>2.631059843064552</v>
+        <v>0.1500082574652359</v>
       </c>
       <c r="D22">
-        <v>1.807489624072141</v>
+        <v>-7.119010359668406</v>
       </c>
       <c r="E22">
-        <v>3.454630062056962</v>
+        <v>7.419026874598879</v>
       </c>
       <c r="F22">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -837,16 +837,16 @@
         <v>120</v>
       </c>
       <c r="C23">
-        <v>2.609093812182377</v>
+        <v>0.3115030959565376</v>
       </c>
       <c r="D23">
-        <v>1.788943121306019</v>
+        <v>-6.927209151518505</v>
       </c>
       <c r="E23">
-        <v>3.429244503058735</v>
+        <v>7.550215343431581</v>
       </c>
       <c r="F23">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -857,16 +857,16 @@
         <v>121</v>
       </c>
       <c r="C24">
-        <v>2.602216972732343</v>
+        <v>0.3257380952103442</v>
       </c>
       <c r="D24">
-        <v>1.785459841968601</v>
+        <v>-6.883209700709489</v>
       </c>
       <c r="E24">
-        <v>3.418974103496084</v>
+        <v>7.534685891130176</v>
       </c>
       <c r="F24">
-        <v>2.8</v>
+        <v>7.692307692307682</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -877,16 +877,16 @@
         <v>122</v>
       </c>
       <c r="C25">
-        <v>2.736364538158191</v>
+        <v>-2.325864980809833</v>
       </c>
       <c r="D25">
-        <v>1.922203935336691</v>
+        <v>-9.621763937149961</v>
       </c>
       <c r="E25">
-        <v>3.550525140979692</v>
+        <v>4.970033975530296</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>7.142857142857149</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -897,16 +897,16 @@
         <v>123</v>
       </c>
       <c r="C26">
-        <v>2.923878988194086</v>
+        <v>-3.548523179334434</v>
       </c>
       <c r="D26">
-        <v>2.111720832099052</v>
+        <v>-10.99854309419509</v>
       </c>
       <c r="E26">
-        <v>3.736037144289119</v>
+        <v>3.901496735526222</v>
       </c>
       <c r="F26">
-        <v>2.8</v>
+        <v>-6.666666666666672</v>
       </c>
     </row>
   </sheetData>
